--- a/public/template/O2C BVI Template.xlsx
+++ b/public/template/O2C BVI Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25428"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://medalsoftinc-my.sharepoint.com/personal/yuanyuan_wang_medalsoft_com/Documents/02项目/71西门子/02 西门子中国/03 GBS B&amp;B new system/01.项目分析/模板和主数据/Import Template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_AD4DA82427541F7ACA7EB8C8F84A136A6BE8DE12" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70D753E0-3CD3-48A9-BA01-E5ED15BB39E5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB9247A-D5A3-46B4-B566-856EEADFCBCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>Company Code</t>
   </si>
@@ -130,51 +128,12 @@
   <si>
     <t>BM21121112</t>
   </si>
-  <si>
-    <t>BM21121205</t>
-  </si>
-  <si>
-    <t>P06SEIOCZ1</t>
-  </si>
-  <si>
-    <t>BM21121368</t>
-  </si>
-  <si>
-    <t>BM21121812</t>
-  </si>
-  <si>
-    <t>BM21120845</t>
-  </si>
-  <si>
-    <t>P06SBE1000</t>
-  </si>
-  <si>
-    <t>BM21121223</t>
-  </si>
-  <si>
-    <t>BM21121743</t>
-  </si>
-  <si>
-    <t>BM21121744</t>
-  </si>
-  <si>
-    <t>BM21112127</t>
-  </si>
-  <si>
-    <t>P06CFLU000</t>
-  </si>
-  <si>
-    <t>BM21112126</t>
-  </si>
-  <si>
-    <t>P06SEIOWH1</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,7 +227,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -546,13 +505,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V17"/>
+  <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.75" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.75" style="2" bestFit="1" customWidth="1"/>
@@ -578,7 +537,7 @@
     <col min="23" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -646,7 +605,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>22</v>
       </c>
@@ -708,7 +667,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
@@ -770,752 +729,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="3">
-        <v>23500000</v>
-      </c>
-      <c r="C4" s="4">
-        <v>44558</v>
-      </c>
-      <c r="D4" s="4">
-        <v>44551</v>
-      </c>
-      <c r="E4" s="4">
-        <v>44558</v>
-      </c>
-      <c r="F4" s="3">
-        <v>24223351</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="3">
-        <v>1400201500</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="5">
-        <v>-165.3</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" s="5">
-        <v>-165.3</v>
-      </c>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3">
-        <v>3004791209</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q4" s="4">
-        <v>44561</v>
-      </c>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="U4" s="3">
-        <v>202109</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="3">
-        <v>23500000</v>
-      </c>
-      <c r="C5" s="4">
-        <v>44558</v>
-      </c>
-      <c r="D5" s="4">
-        <v>44554</v>
-      </c>
-      <c r="E5" s="4">
-        <v>44558</v>
-      </c>
-      <c r="F5" s="3">
-        <v>24223351</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="3">
-        <v>1400201635</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" s="5">
-        <v>-4126.2</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="5">
-        <v>-4126.2</v>
-      </c>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3">
-        <v>3004792803</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q5" s="4">
-        <v>44561</v>
-      </c>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="U5" s="3">
-        <v>202109</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="3">
-        <v>23500000</v>
-      </c>
-      <c r="C6" s="4">
-        <v>44561</v>
-      </c>
-      <c r="D6" s="4">
-        <v>44560</v>
-      </c>
-      <c r="E6" s="4">
-        <v>44561</v>
-      </c>
-      <c r="F6" s="3">
-        <v>24223351</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="3">
-        <v>1400202897</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" s="5">
-        <v>-65512.800000000003</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M6" s="5">
-        <v>-65512.800000000003</v>
-      </c>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3">
-        <v>3004787992</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q6" s="4">
-        <v>44560</v>
-      </c>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="U6" s="3">
-        <v>202109</v>
-      </c>
-      <c r="V6" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="3">
-        <v>23500000</v>
-      </c>
-      <c r="C7" s="4">
-        <v>44546</v>
-      </c>
-      <c r="D7" s="4">
-        <v>44544</v>
-      </c>
-      <c r="E7" s="4">
-        <v>44546</v>
-      </c>
-      <c r="F7" s="3">
-        <v>24235168</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I7" s="3">
-        <v>1400199991</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7" s="5">
-        <v>-533686.73</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M7" s="5">
-        <v>-533686.73</v>
-      </c>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3">
-        <v>3004788129</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q7" s="4">
-        <v>44544</v>
-      </c>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="U7" s="3">
-        <v>202109</v>
-      </c>
-      <c r="V7" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="3">
-        <v>23500000</v>
-      </c>
-      <c r="C8" s="4">
-        <v>44557</v>
-      </c>
-      <c r="D8" s="4">
-        <v>44551</v>
-      </c>
-      <c r="E8" s="4">
-        <v>44557</v>
-      </c>
-      <c r="F8" s="3">
-        <v>24235168</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" s="3">
-        <v>1400201124</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K8" s="5">
-        <v>-364252.29</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M8" s="5">
-        <v>-364252.29</v>
-      </c>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3">
-        <v>3004790313</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q8" s="4">
-        <v>44551</v>
-      </c>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="U8" s="3">
-        <v>202109</v>
-      </c>
-      <c r="V8" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="3">
-        <v>23500000</v>
-      </c>
-      <c r="C9" s="4">
-        <v>44557</v>
-      </c>
-      <c r="D9" s="4">
-        <v>44551</v>
-      </c>
-      <c r="E9" s="4">
-        <v>44557</v>
-      </c>
-      <c r="F9" s="3">
-        <v>24235168</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" s="3">
-        <v>1400201125</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K9" s="5">
-        <v>-631096.68000000005</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M9" s="5">
-        <v>-631096.68000000005</v>
-      </c>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3">
-        <v>3004788129</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q9" s="4">
-        <v>44551</v>
-      </c>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="U9" s="3">
-        <v>202109</v>
-      </c>
-      <c r="V9" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="3">
-        <v>23500000</v>
-      </c>
-      <c r="C10" s="4">
-        <v>44560</v>
-      </c>
-      <c r="D10" s="4">
-        <v>44559</v>
-      </c>
-      <c r="E10" s="4">
-        <v>44560</v>
-      </c>
-      <c r="F10" s="3">
-        <v>24235168</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="3">
-        <v>1400202556</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K10" s="5">
-        <v>-340949.03</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M10" s="5">
-        <v>-340949.03</v>
-      </c>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3">
-        <v>3004787449</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q10" s="4">
-        <v>44559</v>
-      </c>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="U10" s="3">
-        <v>202109</v>
-      </c>
-      <c r="V10" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="3">
-        <v>23500000</v>
-      </c>
-      <c r="C11" s="4">
-        <v>44560</v>
-      </c>
-      <c r="D11" s="4">
-        <v>44559</v>
-      </c>
-      <c r="E11" s="4">
-        <v>44560</v>
-      </c>
-      <c r="F11" s="3">
-        <v>24235168</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="3">
-        <v>1400202557</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K11" s="5">
-        <v>-629903.63</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M11" s="5">
-        <v>-629903.63</v>
-      </c>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3">
-        <v>3004790313</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q11" s="4">
-        <v>44559</v>
-      </c>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="U11" s="3">
-        <v>202109</v>
-      </c>
-      <c r="V11" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="3">
-        <v>23500000</v>
-      </c>
-      <c r="C12" s="4">
-        <v>44560</v>
-      </c>
-      <c r="D12" s="4">
-        <v>44559</v>
-      </c>
-      <c r="E12" s="4">
-        <v>44560</v>
-      </c>
-      <c r="F12" s="3">
-        <v>24235168</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I12" s="3">
-        <v>1400202559</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K12" s="5">
-        <v>-800530.06</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M12" s="5">
-        <v>-800530.06</v>
-      </c>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3">
-        <v>3004788129</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q12" s="4">
-        <v>44559</v>
-      </c>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="U12" s="3">
-        <v>202109</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="3">
-        <v>23500000</v>
-      </c>
-      <c r="C13" s="4">
-        <v>44560</v>
-      </c>
-      <c r="D13" s="4">
-        <v>44559</v>
-      </c>
-      <c r="E13" s="4">
-        <v>44560</v>
-      </c>
-      <c r="F13" s="3">
-        <v>24235168</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I13" s="3">
-        <v>1400202560</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K13" s="5">
-        <v>-199469.94</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M13" s="5">
-        <v>-199469.94</v>
-      </c>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3">
-        <v>3004787449</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q13" s="4">
-        <v>44559</v>
-      </c>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="U13" s="3">
-        <v>202109</v>
-      </c>
-      <c r="V13" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="3">
-        <v>23500000</v>
-      </c>
-      <c r="C14" s="4">
-        <v>44531</v>
-      </c>
-      <c r="D14" s="4">
-        <v>44530</v>
-      </c>
-      <c r="E14" s="4">
-        <v>44530</v>
-      </c>
-      <c r="F14" s="3">
-        <v>24235593</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I14" s="3">
-        <v>1400198463</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K14" s="5">
-        <v>-5185.01</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M14" s="5">
-        <v>-5185.01</v>
-      </c>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3">
-        <v>3004793421</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q14" s="4">
-        <v>44530</v>
-      </c>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="U14" s="3">
-        <v>202109</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="3">
-        <v>23500000</v>
-      </c>
-      <c r="C15" s="4">
-        <v>44533</v>
-      </c>
-      <c r="D15" s="4">
-        <v>44530</v>
-      </c>
-      <c r="E15" s="4">
-        <v>44533</v>
-      </c>
-      <c r="F15" s="3">
-        <v>24235593</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I15" s="3">
-        <v>1400198574</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="K15" s="5">
-        <v>-9690.9</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M15" s="5">
-        <v>-9690.9</v>
-      </c>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3">
-        <v>3004793531</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q15" s="4">
-        <v>44561</v>
-      </c>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="U15" s="3">
-        <v>202109</v>
-      </c>
-      <c r="V15" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="6"/>
+    <row r="5" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1534,6 +749,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010060BC9B362EF8C043A0CC255B74856BF3" ma:contentTypeVersion="" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c50d01044c98fb8ecbd144f89ed44461">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2e6d8e88-43bd-44c5-af4a-b3f409258f8a" xmlns:ns3="c7e0163d-619a-4037-a3c2-ba840964746c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f1e26bed6c9607303f71b5c6e0324231" ns2:_="" ns3:_="">
     <xsd:import namespace="2e6d8e88-43bd-44c5-af4a-b3f409258f8a"/>
@@ -1698,20 +919,38 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9143138F-1958-40F3-9D39-DB36AFD5483A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9143138F-1958-40F3-9D39-DB36AFD5483A}"/>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48CE94A4-C436-44DD-8A98-E89820776A79}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B10D3036-DCB7-4347-BD90-43C571A308DB}"/>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48CE94A4-C436-44DD-8A98-E89820776A79}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B10D3036-DCB7-4347-BD90-43C571A308DB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2e6d8e88-43bd-44c5-af4a-b3f409258f8a"/>
+    <ds:schemaRef ds:uri="c7e0163d-619a-4037-a3c2-ba840964746c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>